--- a/scalebar.xlsx
+++ b/scalebar.xlsx
@@ -475,19 +475,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1205.366455078125</v>
+        <v>1218.856201171875</v>
       </c>
       <c r="C2" t="n">
-        <v>1042.597900390625</v>
+        <v>1043.317138671875</v>
       </c>
       <c r="D2" t="n">
-        <v>559.9561767578125</v>
+        <v>379.5511474609375</v>
       </c>
       <c r="E2" t="n">
-        <v>29.3431396484375</v>
+        <v>23.3148193359375</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8442144989967346</v>
+        <v>0.918473482131958</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>

--- a/scalebar.xlsx
+++ b/scalebar.xlsx
@@ -475,19 +475,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1218.856201171875</v>
+        <v>1218.225830078125</v>
       </c>
       <c r="C2" t="n">
-        <v>1043.317138671875</v>
+        <v>1044.2333984375</v>
       </c>
       <c r="D2" t="n">
-        <v>379.5511474609375</v>
+        <v>383.304443359375</v>
       </c>
       <c r="E2" t="n">
-        <v>23.3148193359375</v>
+        <v>27.1019287109375</v>
       </c>
       <c r="F2" t="n">
-        <v>0.918473482131958</v>
+        <v>0.9147076606750488</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
